--- a/sol2attampt1/sol2attampt1/GroupsDataFiles/groups.xlsx
+++ b/sol2attampt1/sol2attampt1/GroupsDataFiles/groups.xlsx
@@ -42,7 +42,7 @@
     <t>)04+</t>
   </si>
   <si>
-    <t>F'\JS,</t>
+    <t>F\JS,</t>
   </si>
 </sst>
 </file>
